--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il12b-Il12rb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.04992833333333333</v>
+        <v>1.284858666666667</v>
       </c>
       <c r="H2">
-        <v>0.149785</v>
+        <v>3.854576</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1353843333333334</v>
+        <v>0.1320293333333333</v>
       </c>
       <c r="N2">
-        <v>0.406153</v>
+        <v>0.396088</v>
       </c>
       <c r="O2">
-        <v>0.05860584767036443</v>
+        <v>0.02700478969442551</v>
       </c>
       <c r="P2">
-        <v>0.05860584767036443</v>
+        <v>0.02700478969442551</v>
       </c>
       <c r="Q2">
-        <v>0.006759514122777779</v>
+        <v>0.1696390331875556</v>
       </c>
       <c r="R2">
-        <v>0.060835627105</v>
+        <v>1.526751298688</v>
       </c>
       <c r="S2">
-        <v>0.05860584767036443</v>
+        <v>0.01843109336307204</v>
       </c>
       <c r="T2">
-        <v>0.05860584767036443</v>
+        <v>0.01843109336307204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.04992833333333333</v>
+        <v>1.284858666666667</v>
       </c>
       <c r="H3">
-        <v>0.149785</v>
+        <v>3.854576</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5252536666666667</v>
+        <v>0.5252536666666666</v>
       </c>
       <c r="N3">
         <v>1.575761</v>
       </c>
       <c r="O3">
-        <v>0.2273744355720655</v>
+        <v>0.1074334350287755</v>
       </c>
       <c r="P3">
-        <v>0.2273744355720655</v>
+        <v>0.1074334350287755</v>
       </c>
       <c r="Q3">
-        <v>0.02622504015388889</v>
+        <v>0.6748767258151112</v>
       </c>
       <c r="R3">
-        <v>0.236025361385</v>
+        <v>6.073890532336001</v>
       </c>
       <c r="S3">
-        <v>0.2273744355720655</v>
+        <v>0.07332460995760477</v>
       </c>
       <c r="T3">
-        <v>0.2273744355720655</v>
+        <v>0.07332460995760477</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.04992833333333333</v>
+        <v>1.284858666666667</v>
       </c>
       <c r="H4">
-        <v>0.149785</v>
+        <v>3.854576</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.390367</v>
+        <v>1.687203666666667</v>
       </c>
       <c r="N4">
-        <v>1.171101</v>
+        <v>5.061611</v>
       </c>
       <c r="O4">
-        <v>0.168984020338669</v>
+        <v>0.3450943744066743</v>
       </c>
       <c r="P4">
-        <v>0.168984020338669</v>
+        <v>0.3450943744066743</v>
       </c>
       <c r="Q4">
-        <v>0.01949037369833333</v>
+        <v>2.167818253548445</v>
       </c>
       <c r="R4">
-        <v>0.175413363285</v>
+        <v>19.510364281936</v>
       </c>
       <c r="S4">
-        <v>0.168984020338669</v>
+        <v>0.2355310559990518</v>
       </c>
       <c r="T4">
-        <v>0.168984020338669</v>
+        <v>0.2355310559990518</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.04992833333333333</v>
+        <v>1.284858666666667</v>
       </c>
       <c r="H5">
-        <v>0.149785</v>
+        <v>3.854576</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3421903333333333</v>
+        <v>0.505857</v>
       </c>
       <c r="N5">
-        <v>1.026571</v>
+        <v>1.517571</v>
       </c>
       <c r="O5">
-        <v>0.148129063798159</v>
+        <v>0.1034661128369428</v>
       </c>
       <c r="P5">
-        <v>0.148129063798159</v>
+        <v>0.1034661128369428</v>
       </c>
       <c r="Q5">
-        <v>0.01708499302611111</v>
+        <v>0.6499547505440001</v>
       </c>
       <c r="R5">
-        <v>0.153764937235</v>
+        <v>5.849592754896</v>
       </c>
       <c r="S5">
-        <v>0.148129063798159</v>
+        <v>0.0706168649039875</v>
       </c>
       <c r="T5">
-        <v>0.148129063798159</v>
+        <v>0.0706168649039875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,371 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>1.284858666666667</v>
+      </c>
+      <c r="H6">
+        <v>3.854576</v>
+      </c>
+      <c r="I6">
+        <v>0.6825120125588942</v>
+      </c>
+      <c r="J6">
+        <v>0.6825120125588942</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.038764333333333</v>
+      </c>
+      <c r="N6">
+        <v>6.116293000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.4170012880331818</v>
+      </c>
+      <c r="P6">
+        <v>0.4170012880331818</v>
+      </c>
+      <c r="Q6">
+        <v>2.619524022974223</v>
+      </c>
+      <c r="R6">
+        <v>23.575716206768</v>
+      </c>
+      <c r="S6">
+        <v>0.284608388335178</v>
+      </c>
+      <c r="T6">
+        <v>0.284608388335178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.597685</v>
+      </c>
+      <c r="H7">
+        <v>1.793055</v>
+      </c>
+      <c r="I7">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="J7">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1320293333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.396088</v>
+      </c>
+      <c r="O7">
+        <v>0.02700478969442551</v>
+      </c>
+      <c r="P7">
+        <v>0.02700478969442551</v>
+      </c>
+      <c r="Q7">
+        <v>0.07891195209333333</v>
+      </c>
+      <c r="R7">
+        <v>0.71020756884</v>
+      </c>
+      <c r="S7">
+        <v>0.008573696331353471</v>
+      </c>
+      <c r="T7">
+        <v>0.008573696331353471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.597685</v>
+      </c>
+      <c r="H8">
+        <v>1.793055</v>
+      </c>
+      <c r="I8">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="J8">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.5252536666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.575761</v>
+      </c>
+      <c r="O8">
+        <v>0.1074334350287755</v>
+      </c>
+      <c r="P8">
+        <v>0.1074334350287755</v>
+      </c>
+      <c r="Q8">
+        <v>0.3139362377616666</v>
+      </c>
+      <c r="R8">
+        <v>2.825426139855</v>
+      </c>
+      <c r="S8">
+        <v>0.03410882507117075</v>
+      </c>
+      <c r="T8">
+        <v>0.03410882507117075</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.04992833333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.149785</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.916887</v>
-      </c>
-      <c r="N6">
-        <v>2.750661</v>
-      </c>
-      <c r="O6">
-        <v>0.3969066326207421</v>
-      </c>
-      <c r="P6">
-        <v>0.3969066326207421</v>
-      </c>
-      <c r="Q6">
-        <v>0.045778639765</v>
-      </c>
-      <c r="R6">
-        <v>0.412007757885</v>
-      </c>
-      <c r="S6">
-        <v>0.3969066326207421</v>
-      </c>
-      <c r="T6">
-        <v>0.3969066326207421</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.597685</v>
+      </c>
+      <c r="H9">
+        <v>1.793055</v>
+      </c>
+      <c r="I9">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="J9">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.687203666666667</v>
+      </c>
+      <c r="N9">
+        <v>5.061611</v>
+      </c>
+      <c r="O9">
+        <v>0.3450943744066743</v>
+      </c>
+      <c r="P9">
+        <v>0.3450943744066743</v>
+      </c>
+      <c r="Q9">
+        <v>1.008416323511667</v>
+      </c>
+      <c r="R9">
+        <v>9.075746911605</v>
+      </c>
+      <c r="S9">
+        <v>0.1095633184076225</v>
+      </c>
+      <c r="T9">
+        <v>0.1095633184076225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.597685</v>
+      </c>
+      <c r="H10">
+        <v>1.793055</v>
+      </c>
+      <c r="I10">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="J10">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.505857</v>
+      </c>
+      <c r="N10">
+        <v>1.517571</v>
+      </c>
+      <c r="O10">
+        <v>0.1034661128369428</v>
+      </c>
+      <c r="P10">
+        <v>0.1034661128369428</v>
+      </c>
+      <c r="Q10">
+        <v>0.302343141045</v>
+      </c>
+      <c r="R10">
+        <v>2.721088269405</v>
+      </c>
+      <c r="S10">
+        <v>0.03284924793295535</v>
+      </c>
+      <c r="T10">
+        <v>0.03284924793295535</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.597685</v>
+      </c>
+      <c r="H11">
+        <v>1.793055</v>
+      </c>
+      <c r="I11">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="J11">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.038764333333333</v>
+      </c>
+      <c r="N11">
+        <v>6.116293000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4170012880331818</v>
+      </c>
+      <c r="P11">
+        <v>0.4170012880331818</v>
+      </c>
+      <c r="Q11">
+        <v>1.218538860568333</v>
+      </c>
+      <c r="R11">
+        <v>10.966849745115</v>
+      </c>
+      <c r="S11">
+        <v>0.1323928996980038</v>
+      </c>
+      <c r="T11">
+        <v>0.1323928996980038</v>
       </c>
     </row>
   </sheetData>
